--- a/data/dividends_info_20260129.xlsx
+++ b/data/dividends_info_20260129.xlsx
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>24.96999931335449</v>
+        <v>23.53499984741211</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3604325289342962</v>
+        <v>0.3824091802995968</v>
       </c>
       <c r="J3" t="n">
         <v>53</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>56.34999847412109</v>
+        <v>56.29999923706055</v>
       </c>
       <c r="I4" t="n">
-        <v>1.153504911448249</v>
+        <v>1.154529322927815</v>
       </c>
       <c r="J4" t="n">
         <v>25</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.825000047683716</v>
+        <v>1.809999942779541</v>
       </c>
       <c r="I5" t="n">
-        <v>3.287671146976232</v>
+        <v>3.314917231868003</v>
       </c>
       <c r="J5" t="n">
         <v>11</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.2930000126361847</v>
+        <v>0.2939999997615814</v>
       </c>
       <c r="I6" t="n">
-        <v>20.47781481651382</v>
+        <v>20.40816328185607</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9.22700023651123</v>
+        <v>9.25</v>
       </c>
       <c r="I7" t="n">
-        <v>2.492684448948969</v>
+        <v>2.486486486486487</v>
       </c>
       <c r="J7" t="n">
         <v>-10</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5.74399995803833</v>
+        <v>5.76200008392334</v>
       </c>
       <c r="I8" t="n">
-        <v>2.103064082215892</v>
+        <v>2.096494242286568</v>
       </c>
       <c r="J8" t="n">
         <v>-10</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>25.10000038146973</v>
+        <v>25</v>
       </c>
       <c r="I9" t="n">
-        <v>2.868525852818495</v>
+        <v>2.88</v>
       </c>
       <c r="J9" t="n">
         <v>-20</v>
@@ -2889,151 +2889,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Haiki+ S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>KALEON S.P.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>NEXT RE SIIQ S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RECORDATI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-02-17</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>RECORDATI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-02-18</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Reti S.p.A.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>doxee S.p.A.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>